--- a/LOGS/26cd4795-4ed5-49af-a3d7-5dc6826a64bc/main_page_service_output/notes_cropped_df.xlsx
+++ b/LOGS/26cd4795-4ed5-49af-a3d7-5dc6826a64bc/main_page_service_output/notes_cropped_df.xlsx
@@ -17,13 +17,14 @@
     <sheet name="5_(b)_b4a9a065-b563-" sheetId="8" r:id="rId8"/>
     <sheet name="5_(b)_9e18a0bb-55d8-" sheetId="9" r:id="rId9"/>
     <sheet name="6__2d930aad-9df8-372" sheetId="10" r:id="rId10"/>
+    <sheet name="7__c0904331-c00d-39b" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="188">
   <si>
     <t>Raw materials and stores</t>
   </si>
@@ -566,6 +567,27 @@
   </si>
   <si>
     <t>(95,384)</t>
+  </si>
+  <si>
+    <t>Cash at bank and in hand</t>
+  </si>
+  <si>
+    <t>Term deposit</t>
+  </si>
+  <si>
+    <t>14502614</t>
+  </si>
+  <si>
+    <t>2368905</t>
+  </si>
+  <si>
+    <t>16871519</t>
+  </si>
+  <si>
+    <t>11,203,771 2,321,888</t>
+  </si>
+  <si>
+    <t>13525659</t>
   </si>
 </sst>
 </file>
@@ -1206,6 +1228,68 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>

--- a/LOGS/26cd4795-4ed5-49af-a3d7-5dc6826a64bc/main_page_service_output/notes_cropped_df.xlsx
+++ b/LOGS/26cd4795-4ed5-49af-a3d7-5dc6826a64bc/main_page_service_output/notes_cropped_df.xlsx
@@ -12,19 +12,26 @@
     <sheet name="11__3d7aa904-7abf-34" sheetId="3" r:id="rId3"/>
     <sheet name="13__72335360-0cc6-3c" sheetId="4" r:id="rId4"/>
     <sheet name="13__d7988c4f-d09c-3b" sheetId="5" r:id="rId5"/>
-    <sheet name="4__6a10f31e-b6a9-313" sheetId="6" r:id="rId6"/>
-    <sheet name="5_(a)_6a10f31e-b6a9-" sheetId="7" r:id="rId7"/>
-    <sheet name="5_(b)_b4a9a065-b563-" sheetId="8" r:id="rId8"/>
-    <sheet name="5_(b)_9e18a0bb-55d8-" sheetId="9" r:id="rId9"/>
-    <sheet name="6__2d930aad-9df8-372" sheetId="10" r:id="rId10"/>
-    <sheet name="7__c0904331-c00d-39b" sheetId="11" r:id="rId11"/>
+    <sheet name="14__a6ee8afd-b658-39" sheetId="6" r:id="rId6"/>
+    <sheet name="14__656e2f63-0153-36" sheetId="7" r:id="rId7"/>
+    <sheet name="15__a6ee8afd-b658-39" sheetId="8" r:id="rId8"/>
+    <sheet name="17__b4a9a065-b563-3c" sheetId="9" r:id="rId9"/>
+    <sheet name="18_(b)_9e18a0bb-55d8" sheetId="10" r:id="rId10"/>
+    <sheet name="18_(b)_f4ef0d64-df7d" sheetId="11" r:id="rId11"/>
+    <sheet name="18_(b)_a82f3cbc-2a70" sheetId="12" r:id="rId12"/>
+    <sheet name="4__6a10f31e-b6a9-313" sheetId="13" r:id="rId13"/>
+    <sheet name="5_(a)_6a10f31e-b6a9-" sheetId="14" r:id="rId14"/>
+    <sheet name="5_(b)_b4a9a065-b563-" sheetId="15" r:id="rId15"/>
+    <sheet name="5_(b)_9e18a0bb-55d8-" sheetId="16" r:id="rId16"/>
+    <sheet name="6__2d930aad-9df8-372" sheetId="17" r:id="rId17"/>
+    <sheet name="7__c0904331-c00d-39b" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="235">
   <si>
     <t>Raw materials and stores</t>
   </si>
@@ -221,6 +228,222 @@
     <t>3696</t>
   </si>
   <si>
+    <t>Financial liabilities measured at amortised cost</t>
+  </si>
+  <si>
+    <t>Non-financial liabilities</t>
+  </si>
+  <si>
+    <t>15 Employee benefit obligations</t>
+  </si>
+  <si>
+    <t>9370427</t>
+  </si>
+  <si>
+    <t>131964</t>
+  </si>
+  <si>
+    <t>9502391</t>
+  </si>
+  <si>
+    <t>9546820</t>
+  </si>
+  <si>
+    <t>89655</t>
+  </si>
+  <si>
+    <t>9636475</t>
+  </si>
+  <si>
+    <t>Trade payables</t>
+  </si>
+  <si>
+    <t>Accrued expenses</t>
+  </si>
+  <si>
+    <t>Other payables</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>9004456</t>
+  </si>
+  <si>
+    <t>365971</t>
+  </si>
+  <si>
+    <t>9389282</t>
+  </si>
+  <si>
+    <t>157538</t>
+  </si>
+  <si>
+    <t>Employee benefits annual leave</t>
+  </si>
+  <si>
+    <t>Employee benefits - long service leave</t>
+  </si>
+  <si>
+    <t>Total employee benefit obligations</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>21675</t>
+  </si>
+  <si>
+    <t>33187</t>
+  </si>
+  <si>
+    <t>54862</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>17110</t>
+  </si>
+  <si>
+    <t>31040</t>
+  </si>
+  <si>
+    <t>48150</t>
+  </si>
+  <si>
+    <t>17 Contributed equity</t>
+  </si>
+  <si>
+    <t>(a) Share capital</t>
+  </si>
+  <si>
+    <t>2023 Shares</t>
+  </si>
+  <si>
+    <t>Ordinary shares</t>
+  </si>
+  <si>
+    <t>Fully paid 25,467,389</t>
+  </si>
+  <si>
+    <t>2022 Shares</t>
+  </si>
+  <si>
+    <t>25467389</t>
+  </si>
+  <si>
+    <t>(b) Retained earnings</t>
+  </si>
+  <si>
+    <t>Movements in retained earnings were as follows:</t>
+  </si>
+  <si>
+    <t>Balance 1 April</t>
+  </si>
+  <si>
+    <t>Net profit for the year</t>
+  </si>
+  <si>
+    <t>Balance 31 March</t>
+  </si>
+  <si>
+    <t>19 Dividends</t>
+  </si>
+  <si>
+    <t>Franked dividends</t>
+  </si>
+  <si>
+    <t>Franking credits available for subsequent reporting periods based on a tax rate of 30.0% (2022 30.0%)</t>
+  </si>
+  <si>
+    <t>7262779</t>
+  </si>
+  <si>
+    <t>1459220</t>
+  </si>
+  <si>
+    <t>8721999</t>
+  </si>
+  <si>
+    <t>1631695</t>
+  </si>
+  <si>
+    <t>6217272</t>
+  </si>
+  <si>
+    <t>1045507</t>
+  </si>
+  <si>
+    <t>1775581</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Meiji Holdings Co. Ltd</t>
+  </si>
+  <si>
+    <t>Meiji Co., Ltd.</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Ultimate controlling party</t>
+  </si>
+  <si>
+    <t>Immediate parent entity</t>
+  </si>
+  <si>
+    <t>Place of incorporation</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Ownership interest</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Total remuneration for audit and other assurance services</t>
+  </si>
+  <si>
+    <t>Audit and review of financial statements</t>
+  </si>
+  <si>
+    <t>37105</t>
+  </si>
+  <si>
+    <t>Tax compliance services</t>
+  </si>
+  <si>
+    <t>Total remuneration for taxation services</t>
+  </si>
+  <si>
+    <t>Compilation of financial statements</t>
+  </si>
+  <si>
+    <t>Total remuneration for other services</t>
+  </si>
+  <si>
+    <t>Total remuneration of PwC Australia</t>
+  </si>
+  <si>
+    <t>34680</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>2725</t>
+  </si>
+  <si>
+    <t>57830</t>
+  </si>
+  <si>
     <t>4 Other income</t>
   </si>
   <si>
@@ -236,12 +459,6 @@
     <t>5 Other gains/(losses) and expense items</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
     <t>57475</t>
   </si>
   <si>
@@ -254,9 +471,6 @@
     <t>453175</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>3746</t>
   </si>
   <si>
@@ -317,21 +531,6 @@
     <t>At 31 March 2023 3,533</t>
   </si>
   <si>
-    <t>17 Contributed equity</t>
-  </si>
-  <si>
-    <t>(a) Share capital</t>
-  </si>
-  <si>
-    <t>2023 Shares</t>
-  </si>
-  <si>
-    <t>Ordinary shares</t>
-  </si>
-  <si>
-    <t>Fully paid 25,467,389</t>
-  </si>
-  <si>
     <t>Accrued interest receivable $ (278)</t>
   </si>
   <si>
@@ -344,12 +543,6 @@
     <t>(428)</t>
   </si>
   <si>
-    <t>2022 Shares</t>
-  </si>
-  <si>
-    <t>25467389</t>
-  </si>
-  <si>
     <t>369</t>
   </si>
   <si>
@@ -401,30 +594,6 @@
     <t>Currency translation differences arising during the year</t>
   </si>
   <si>
-    <t>Balance 31 March</t>
-  </si>
-  <si>
-    <t>(b) Retained earnings</t>
-  </si>
-  <si>
-    <t>Movements in retained earnings were as follows:</t>
-  </si>
-  <si>
-    <t>Balance 1 April</t>
-  </si>
-  <si>
-    <t>Net profit for the year</t>
-  </si>
-  <si>
-    <t>19 Dividends</t>
-  </si>
-  <si>
-    <t>Franked dividends</t>
-  </si>
-  <si>
-    <t>Franking credits available for subsequent reporting periods based on a tax rate of 30.0% (2022 30.0%)</t>
-  </si>
-  <si>
     <t>1945682</t>
   </si>
   <si>
@@ -434,31 +603,10 @@
     <t>3201379</t>
   </si>
   <si>
-    <t>7262779</t>
-  </si>
-  <si>
-    <t>1459220</t>
-  </si>
-  <si>
-    <t>8721999</t>
-  </si>
-  <si>
-    <t>1631695</t>
-  </si>
-  <si>
     <t>(1,673,797)</t>
   </si>
   <si>
     <t>418100</t>
-  </si>
-  <si>
-    <t>6217272</t>
-  </si>
-  <si>
-    <t>1045507</t>
-  </si>
-  <si>
-    <t>1775581</t>
   </si>
   <si>
     <t>6 Income tax expense</t>
@@ -1007,6 +1155,907 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1026,201 +2075,201 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="C22" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="C23" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="C24" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -1228,7 +2277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1257,32 +2306,32 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -1736,7 +2785,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1754,70 +2803,46 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
       <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>72</v>
-      </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1845,43 +2870,52 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>81</v>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1891,7 +2925,85 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1912,414 +3024,60 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="A2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
         <v>99</v>
-      </c>
-      <c r="B22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
